--- a/templates/AutomationOrg/POData_AutomationOrg.xlsx
+++ b/templates/AutomationOrg/POData_AutomationOrg.xlsx
@@ -442,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +479,102 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -693,7 +789,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -749,11 +845,35 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="58">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -798,8 +918,24 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="33" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="34" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="35" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="36" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="37" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="38" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="39" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="40" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="41" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="42" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="43" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="44" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="45" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="46" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="47" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="48" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="49" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="50" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="51" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>

--- a/templates/AutomationOrg/POData_AutomationOrg.xlsx
+++ b/templates/AutomationOrg/POData_AutomationOrg.xlsx
@@ -442,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="214" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +479,966 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -789,7 +1749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="105">
     <border>
       <left/>
       <right/>
@@ -869,11 +1829,251 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="218">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -934,8 +2134,168 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="49" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="50" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="51" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="52" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="53" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="54" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="55" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="56" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="57" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="58" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="59" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="60" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="61" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="62" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="63" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="64" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="65" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="66" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="67" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="68" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="69" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="70" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="71" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="72" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="73" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="74" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="75" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="76" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="77" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="78" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="79" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="80" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="81" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="82" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="83" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="84" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="85" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="86" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="87" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="88" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="89" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="90" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="91" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="92" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="93" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="94" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="95" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="96" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="97" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="98" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="99" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="100" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="101" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="102" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="103" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="104" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="105" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="106" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="107" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="108" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="109" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="110" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="111" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="112" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="113" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="114" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="115" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="116" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="117" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="118" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="119" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="120" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="121" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="122" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="123" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="124" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="125" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="126" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="127" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="128" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="129" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="130" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="131" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="132" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="133" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="134" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="135" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="136" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="137" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="138" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="139" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="140" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="141" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="142" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="143" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="144" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="145" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="146" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="147" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="148" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="149" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="150" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="151" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="152" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="153" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="154" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="155" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="156" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="157" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="158" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="159" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="160" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="161" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="162" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="163" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="164" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="165" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="166" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="167" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="168" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="169" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="170" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="171" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="172" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="173" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="174" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="175" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="176" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="177" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="178" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="179" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="180" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="181" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="182" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="183" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="184" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="90" fillId="0" fontId="185" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="186" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="91" fillId="0" fontId="187" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="188" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="92" fillId="0" fontId="189" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="190" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="93" fillId="0" fontId="191" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="192" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="94" fillId="0" fontId="193" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="194" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="95" fillId="0" fontId="195" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="196" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="96" fillId="0" fontId="197" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="198" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="97" fillId="0" fontId="199" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="200" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="98" fillId="0" fontId="201" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="202" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="99" fillId="0" fontId="203" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="204" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="100" fillId="0" fontId="205" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="206" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="101" fillId="0" fontId="207" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="208" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="102" fillId="0" fontId="209" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="210" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="103" fillId="0" fontId="211" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="213" fillId="0" borderId="104" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
